--- a/02_datos_crudos/Monitor_junio/Monitor_PPD_junio2.xlsx
+++ b/02_datos_crudos/Monitor_junio/Monitor_PPD_junio2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socan\Documents\GitHub\monitor_ppd\02_datos_crudos\Monitor_junio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9789964-DA2A-428C-8124-0AFC7F93E6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D27978-4B74-48D6-998F-C73C53F5E07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7416,7 +7416,7 @@
   <dimension ref="A1:BJ565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C582" sqref="C582"/>
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -93474,21 +93474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101000D36D5BB2567F649A7FE323305EB67CC" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="15843cf0622f2f2331d562a2d2b6f203">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb2ea14c-75ea-48ca-9868-d1bc1340ddfe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="475e63e579daf40c65f94b4e4632cf6f" ns2:_="">
     <xsd:import namespace="fb2ea14c-75ea-48ca-9868-d1bc1340ddfe"/>
@@ -93620,24 +93605,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101D1A7F-418D-4E62-80BB-5E35B217E381}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB16C840-7797-40B8-8C62-0CB4055BCF46}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE529136-3F52-403A-B64C-40E1EC460D85}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -93653,4 +93636,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB16C840-7797-40B8-8C62-0CB4055BCF46}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101D1A7F-418D-4E62-80BB-5E35B217E381}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>